--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB4517-80DD-44A8-9D96-AE9D6D05C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D21EA0-DF06-4403-9B91-3AF51C4E9966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -220,6 +220,26 @@
       <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中　静香</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シズカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元金：32,000</t>
+    <rPh sb="0" eb="2">
+      <t>ガンキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -295,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -354,6 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -669,9 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
@@ -690,15 +715,17 @@
     <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>13200</v>
+        <v>32000</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>12</v>
@@ -721,8 +748,14 @@
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -756,13 +789,22 @@
       <c r="R2" s="7">
         <v>10066</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="6">
+        <v>44901</v>
+      </c>
+      <c r="V2" s="1">
+        <v>33408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="20">
-        <v>44985</v>
+        <v>45011</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -791,13 +833,22 @@
       <c r="R3" s="4">
         <v>9948</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="T3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="6">
+        <v>44932</v>
+      </c>
+      <c r="V3" s="3">
+        <v>33011.199999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="20">
-        <v>44985</v>
+        <v>45011</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
@@ -821,8 +872,14 @@
         <f>SUM(R2:R3)</f>
         <v>20014</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="U4" s="6">
+        <v>44963</v>
+      </c>
+      <c r="V4" s="3">
+        <v>32358.400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -844,8 +901,14 @@
         <v>13532.64</v>
       </c>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="U5" s="6">
+        <v>44991</v>
+      </c>
+      <c r="V5" s="3">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -866,8 +929,15 @@
         <v>13374.24</v>
       </c>
       <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="U6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="7">
+        <f>SUM(V2:V5)</f>
+        <v>130777.60000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -889,13 +959,13 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>13200</v>
+        <v>32000</v>
       </c>
       <c r="G8" s="21">
         <v>44743</v>
@@ -912,7 +982,7 @@
         <v>81671.039999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:22">
       <c r="G9" s="6">
         <v>44774</v>
       </c>
@@ -921,7 +991,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:22">
       <c r="G10" s="6">
         <v>44805</v>
       </c>
@@ -930,13 +1000,13 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>13200×0.146 ×0÷ 365 =0</v>
+        <v>32000×0.146 ×0÷ 365 =0</v>
       </c>
       <c r="G11" s="6">
         <v>44835</v>
@@ -945,7 +1015,7 @@
         <v>10418.76</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:22">
       <c r="G12" s="6">
         <v>44866</v>
       </c>
@@ -953,7 +1023,7 @@
         <v>10296</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:22">
       <c r="G13" s="6">
         <v>44896</v>
       </c>
@@ -961,7 +1031,7 @@
         <v>10177.200000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:22">
       <c r="G14" s="6">
         <v>44957</v>
       </c>
@@ -969,7 +1039,7 @@
         <v>10054.44</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:22">
       <c r="G15" s="6">
         <v>44985</v>
       </c>
@@ -977,30 +1047,33 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:22">
       <c r="A16" s="14"/>
       <c r="G16" s="6"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:32">
       <c r="G17" s="6"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="7:32">
       <c r="G18" s="6"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:32">
       <c r="G19" s="6"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:32">
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="10">
         <f>SUM(H9:H19)</f>
         <v>67913.2</v>
+      </c>
+      <c r="AF20" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D21EA0-DF06-4403-9B91-3AF51C4E9966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E206E-0CDD-4FBE-A3DE-00135B26B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -199,22 +199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>遅延損害金合計額</t>
-    <rPh sb="0" eb="2">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ソンガイキン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>20日しめ</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -240,6 +224,36 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>あまり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TSUBAKI②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAFARI②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>差引</t>
+    <rPh sb="0" eb="2">
+      <t>サシヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウサシヒキゴチエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -315,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,25 +379,121 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -410,20 +520,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I13" totalsRowCount="1">
+  <autoFilter ref="A1:I12" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="6" dataCellStyle="桁区切り"/>
+    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="4" dataCellStyle="桁区切り"/>
+    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="9" totalsRowDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" dataDxfId="0" dataCellStyle="桁区切り">
-      <calculatedColumnFormula>A2*$L$1*F2/$L$2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="桁区切り">
+      <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="7" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -694,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -725,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>32000</v>
+        <v>9900</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>12</v>
@@ -765,7 +878,7 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>44562</v>
       </c>
       <c r="H2" s="11">
@@ -790,7 +903,7 @@
         <v>10066</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U2" s="6">
         <v>44901</v>
@@ -803,13 +916,13 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="20">
-        <v>45011</v>
+      <c r="B3" s="19">
+        <v>45005</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>44593</v>
       </c>
       <c r="H3" s="11">
@@ -821,7 +934,7 @@
       <c r="M3" s="6">
         <v>44745</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <v>13849.44</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -834,7 +947,7 @@
         <v>9948</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U3" s="6">
         <v>44932</v>
@@ -847,13 +960,13 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="20">
-        <v>45011</v>
+      <c r="B4" s="19">
+        <v>45017</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="21">
+        <v>24</v>
+      </c>
+      <c r="G4" s="20">
         <v>44621</v>
       </c>
       <c r="H4" s="11">
@@ -885,9 +998,9 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
+        <v>12</v>
+      </c>
+      <c r="G5" s="20">
         <v>44652</v>
       </c>
       <c r="H5" s="11">
@@ -916,7 +1029,7 @@
         <v>365</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>44682</v>
       </c>
       <c r="H6" s="11">
@@ -943,9 +1056,9 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
+        <v>47.519999999999996</v>
+      </c>
+      <c r="G7" s="20">
         <v>44713</v>
       </c>
       <c r="H7" s="11">
@@ -965,9 +1078,9 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>32000</v>
-      </c>
-      <c r="G8" s="21">
+        <v>9947.52</v>
+      </c>
+      <c r="G8" s="20">
         <v>44743</v>
       </c>
       <c r="H8" s="11">
@@ -983,21 +1096,36 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="G9" s="6">
+      <c r="G9" s="20">
         <v>44774</v>
       </c>
-      <c r="H9" s="9">
-        <v>6454</v>
+      <c r="H9" s="11">
+        <v>10633</v>
+      </c>
+      <c r="I9" s="22">
+        <f>30000-SUM(H7:H9)-713</f>
+        <v>5621.5999999999985</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:22">
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <f>9900-5622</f>
+        <v>4278</v>
+      </c>
       <c r="G10" s="6">
         <v>44805</v>
       </c>
       <c r="H10" s="9">
-        <v>10612.8</v>
-      </c>
+        <v>4608.2615999999998</v>
+      </c>
+      <c r="I10" s="14"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:22">
@@ -1006,13 +1134,13 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>32000×0.146 ×0÷ 365 =0</v>
+        <v>9900×0.146 ×12÷ 365 =48</v>
       </c>
       <c r="G11" s="6">
         <v>44835</v>
       </c>
       <c r="H11" s="9">
-        <v>10418.76</v>
+        <v>10545.48</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1020,7 +1148,7 @@
         <v>44866</v>
       </c>
       <c r="H12" s="9">
-        <v>10296</v>
+        <v>10422.719999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1028,15 +1156,16 @@
         <v>44896</v>
       </c>
       <c r="H13" s="9">
-        <v>10177.200000000001</v>
-      </c>
+        <v>10303.92</v>
+      </c>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:22">
       <c r="G14" s="6">
         <v>44957</v>
       </c>
       <c r="H14" s="9">
-        <v>10054.44</v>
+        <v>10181.16</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1044,13 +1173,19 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>9900</v>
-      </c>
+        <v>10058.4</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="14"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="6">
+        <v>44986</v>
+      </c>
+      <c r="H16" s="9">
+        <v>9947.52</v>
+      </c>
     </row>
     <row r="17" spans="7:32">
       <c r="G17" s="6"/>
@@ -1069,11 +1204,11 @@
         <v>11</v>
       </c>
       <c r="H20" s="10">
-        <f>SUM(H9:H19)</f>
-        <v>67913.2</v>
-      </c>
-      <c r="AF20" s="23" t="s">
-        <v>28</v>
+        <f>SUM(H10:H16)</f>
+        <v>66067.461599999995</v>
+      </c>
+      <c r="AF20" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1098,13 +1233,15 @@
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
+    <col min="9" max="9" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.08203125" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1126,21 +1263,30 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="17">
-        <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),テーブル1[[#Data],[遅延損害金]])</f>
-        <v>422300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="17">
+        <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),テーブル1[[#Totals],[遅延損害金]])</f>
+        <v>385242.22560000001</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="18">
         <v>400000</v>
       </c>
@@ -1158,21 +1304,30 @@
         <v>44975</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F12" si="0">E2-D2</f>
         <v>194</v>
       </c>
       <c r="G2" s="18">
-        <f>A2*$L$1*F2/$L$2-SUM(6000,3700)</f>
-        <v>21339.999999999996</v>
-      </c>
-      <c r="K2" t="s">
+        <f>A2*$M$1*F2/$M$2</f>
+        <v>31039.999999999996</v>
+      </c>
+      <c r="H2" s="18">
+        <f>A2*$M$1*F2/$M$2-SUM(C2:C5)-6340</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="18">
         <v>400000</v>
       </c>
@@ -1194,17 +1349,30 @@
         <v>6</v>
       </c>
       <c r="G3" s="18">
-        <f t="shared" ref="G3:G9" si="1">A3*$L$1*F3/$L$2</f>
+        <f t="shared" ref="G3:G12" si="1">A3*$M$1*F3/$M$2</f>
         <v>959.99999999999989</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="18"/>
+      <c r="H3" s="18">
+        <f>A3*$M$1*F3/$M$2-960</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="18">
+        <v>400000</v>
+      </c>
       <c r="B4" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
         <v>44990</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="18">
+        <v>9000</v>
+      </c>
       <c r="D4" s="16">
         <v>44983</v>
       </c>
@@ -1217,24 +1385,29 @@
       </c>
       <c r="G4" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="19">
-        <f>SUM(テーブル1[[#Data],[遅延損害金]])</f>
-        <v>22299.999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="18"/>
+        <v>1119.9999999999998</v>
+      </c>
+      <c r="H4" s="18">
+        <f>A4*$M$1*F4/$M$2-1120</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="18">
+        <v>400000</v>
+      </c>
       <c r="B5" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
         <v>44996</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18">
+        <v>6000</v>
+      </c>
       <c r="D5" s="16">
         <v>44991</v>
       </c>
@@ -1247,16 +1420,27 @@
       </c>
       <c r="G5" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="18"/>
+        <v>799.99999999999989</v>
+      </c>
+      <c r="H5" s="18">
+        <f>A5*$M$1*F5/$M$2-800</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="18">
+        <v>400000</v>
+      </c>
       <c r="B6" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
         <v>45003</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="18">
+        <f>6000+9000+4000</f>
+        <v>19000</v>
+      </c>
       <c r="D6" s="16">
         <v>44997</v>
       </c>
@@ -1269,16 +1453,27 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="18"/>
+        <v>959.99999999999989</v>
+      </c>
+      <c r="H6" s="18">
+        <f>A6*$M$1*F6/$M$2-960</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="18">
+        <f>400000-8820</f>
+        <v>391180</v>
+      </c>
       <c r="B7" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
         <v>45005</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18">
+        <v>9000</v>
+      </c>
       <c r="D7" s="16">
         <v>45004</v>
       </c>
@@ -1291,28 +1486,47 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="18"/>
+        <v>156.47200000000001</v>
+      </c>
+      <c r="H7" s="18">
+        <f>A7*$M$1*F7/$M$2-156</f>
+        <v>0.47200000000000841</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="18">
+        <f>391180-8844</f>
+        <v>382336</v>
+      </c>
       <c r="B8" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
+        <v>45025</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="16">
+        <v>45006</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45025</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>2905.7536</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" ref="H7:H12" si="2">A8*$M$1*F8/$M$2</f>
+        <v>2905.7536</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="18"/>
       <c r="B9" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
@@ -1322,17 +1536,114 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9">
+        <f>E9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <f>A9*$M$1*F9/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16">
+        <f>テーブル1[[#This Row],[終了日]]</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10">
+        <f>E10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f>A10*$M$1*F10/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16">
+        <f>テーブル1[[#This Row],[終了日]]</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11">
+        <f>E11-D11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <f>A11*$M$1*F11/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16">
+        <f>テーブル1[[#This Row],[終了日]]</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H12" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="25"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="G13" s="25">
+        <f>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844)</f>
+        <v>2906.2255999999907</v>
+      </c>
+      <c r="H13" s="24">
+        <f>SUBTOTAL(109,テーブル1[差引])</f>
+        <v>2906.2256000000002</v>
+      </c>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64E206E-0CDD-4FBE-A3DE-00135B26B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90DFB62-BD7B-4B46-AB6C-72401FB7E473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -252,6 +252,38 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウサシヒキゴチエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまり8820円を元金から差引 結果は7行目</t>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガンキン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サシヒキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまり8844円を元金から差引 結果は8行目</t>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガンキン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サシヒキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -329,7 +361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -391,12 +423,10 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -407,24 +437,7 @@
       <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
@@ -433,47 +446,13 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -811,21 +790,21 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
@@ -1221,24 +1200,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.08203125" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1393,9 +1370,9 @@
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="26"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18">
@@ -1459,7 +1436,9 @@
         <f>A6*$M$1*F6/$M$2-960</f>
         <v>0</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:19">
@@ -1492,7 +1471,9 @@
         <f>A7*$M$1*F7/$M$2-156</f>
         <v>0.47200000000000841</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:19">
@@ -1520,7 +1501,7 @@
         <v>2905.7536</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" ref="H7:H12" si="2">A8*$M$1*F8/$M$2</f>
+        <f t="shared" ref="H4:H8" si="2">A8*$M$1*F8/$M$2</f>
         <v>2905.7536</v>
       </c>
       <c r="I8" s="18"/>
@@ -1544,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H8:H12" si="3">A9*$M$1*F9/$M$2</f>
         <v>0</v>
       </c>
       <c r="I9" s="18"/>
@@ -1568,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="18"/>
@@ -1592,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="18"/>
@@ -1616,27 +1597,27 @@
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="25"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="G13" s="25">
+      <c r="G13" s="23">
         <f>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844)</f>
         <v>2906.2255999999907</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <f>SUBTOTAL(109,テーブル1[差引])</f>
         <v>2906.2256000000002</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="18"/>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90DFB62-BD7B-4B46-AB6C-72401FB7E473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C3A60-6049-4F08-9257-B36DBC02CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,27 +434,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -474,6 +453,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -484,6 +469,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,20 +502,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I13" totalsRowCount="1">
   <autoFilter ref="A1:I12" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="6" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="4" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="11" dataCellStyle="桁区切り"/>
+    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="8" dataCellStyle="桁区切り"/>
+    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="桁区切り">
+    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="桁区切り">
       <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
       <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="桁区切り"/>
-    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="7" dataCellStyle="桁区切り"/>
+    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="桁区切り"/>
+    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>12</v>
@@ -896,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="19">
-        <v>45005</v>
+        <v>45013</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="19">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G5" s="20">
         <v>44652</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>47.519999999999996</v>
+        <v>179.51999999999998</v>
       </c>
       <c r="G7" s="20">
         <v>44713</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>9947.52</v>
+        <v>13379.52</v>
       </c>
       <c r="G8" s="20">
         <v>44743</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×12÷ 365 =48</v>
+        <v>13200×0.146 ×34÷ 365 =180</v>
       </c>
       <c r="G11" s="6">
         <v>44835</v>
@@ -1200,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1501,7 +1501,7 @@
         <v>2905.7536</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" ref="H4:H8" si="2">A8*$M$1*F8/$M$2</f>
+        <f t="shared" ref="H8" si="2">A8*$M$1*F8/$M$2</f>
         <v>2905.7536</v>
       </c>
       <c r="I8" s="18"/>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" ref="H8:H12" si="3">A9*$M$1*F9/$M$2</f>
+        <f t="shared" ref="H9:H12" si="3">A9*$M$1*F9/$M$2</f>
         <v>0</v>
       </c>
       <c r="I9" s="18"/>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C3A60-6049-4F08-9257-B36DBC02CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A12A2-D91A-42D9-AB4C-0D3F4C054530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A12A2-D91A-42D9-AB4C-0D3F4C054530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789BA04-047A-4325-86FE-3EC40A245B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -285,6 +285,46 @@
     <rPh sb="13" eb="15">
       <t>サシヒキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまり6094円を元金から差引 結果は9行目</t>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガンキン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サシヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンセル代金残り</t>
+    <rPh sb="5" eb="7">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効遅延損害金</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ソンガイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/4/23～2023/5/30</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -434,6 +474,27 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -453,12 +514,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -469,21 +524,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,23 +539,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I13" totalsRowCount="1">
-  <autoFilter ref="A1:I12" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowCount="1">
+  <autoFilter ref="A1:I15" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="11" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="8" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="6" dataCellStyle="桁区切り"/>
+    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="4" dataCellStyle="桁区切り"/>
+    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="9" totalsRowDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="桁区切り">
+    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="桁区切り">
       <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
-      <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844)</totalsRowFormula>
+      <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="桁区切り"/>
-    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="7" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1198,9 +1238,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1214,7 +1256,7 @@
     <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.625" customWidth="1"/>
     <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1256,8 +1298,8 @@
         <v>21</v>
       </c>
       <c r="Q1" s="17">
-        <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),テーブル1[[#Totals],[遅延損害金]])</f>
-        <v>385242.22560000001</v>
+        <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),SUM(O7:O16))+$N$5</f>
+        <v>391664</v>
       </c>
       <c r="S1" t="s">
         <v>31</v>
@@ -1281,7 +1323,7 @@
         <v>44975</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F12" si="0">E2-D2</f>
+        <f t="shared" ref="F2:F15" si="0">E2-D2</f>
         <v>194</v>
       </c>
       <c r="G2" s="18">
@@ -1326,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="18">
-        <f t="shared" ref="G3:G12" si="1">A3*$M$1*F3/$M$2</f>
+        <f t="shared" ref="G3:G15" si="1">A3*$M$1*F3/$M$2</f>
         <v>959.99999999999989</v>
       </c>
       <c r="H3" s="18">
@@ -1372,7 +1414,6 @@
       <c r="J4" s="18"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18">
@@ -1405,6 +1446,12 @@
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>9854</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="18">
@@ -1475,6 +1522,15 @@
         <v>35</v>
       </c>
       <c r="J7" s="18"/>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7">
+        <v>5568</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="18">
@@ -1485,7 +1541,9 @@
         <f>テーブル1[[#This Row],[終了日]]</f>
         <v>45025</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18">
+        <v>9000</v>
+      </c>
       <c r="D8" s="16">
         <v>45006</v>
       </c>
@@ -1501,56 +1559,74 @@
         <v>2905.7536</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" ref="H8" si="2">A8*$M$1*F8/$M$2</f>
+        <f t="shared" ref="H8:H11" si="2">A8*$M$1*F8/$M$2</f>
         <v>2905.7536</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18">
+        <f>382336-6094</f>
+        <v>376242</v>
+      </c>
       <c r="B9" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+        <v>45031</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>45026</v>
+      </c>
+      <c r="E9" s="16">
+        <v>45031</v>
+      </c>
       <c r="F9">
         <f>E9-D9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="18">
-        <f>A9*$M$1*F9/$M$2</f>
-        <v>0</v>
+        <f>A9*$M$1*F9/$M$2+150+150</f>
+        <v>1052.4839999999999</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" ref="H9:H12" si="3">A9*$M$1*F9/$M$2</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>752.48399999999992</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="18"/>
+      <c r="A10" s="18">
+        <f>376242</f>
+        <v>376242</v>
+      </c>
       <c r="B10" s="16">
         <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
+        <v>45076</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="16">
+        <v>45039</v>
+      </c>
+      <c r="E10" s="16">
+        <v>45076</v>
+      </c>
       <c r="F10">
         <f>E10-D10</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G10" s="18">
         <f>A10*$M$1*F10/$M$2</f>
-        <v>0</v>
+        <v>5568.3815999999997</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5568.3815999999997</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -1573,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="18"/>
@@ -1589,38 +1665,110 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>E12-D12</f>
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="1"/>
+        <f>A12*$M$1*F12/$M$2</f>
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H12:H15" si="3">A12*$M$1*F12/$M$2</f>
         <v>0</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="23"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="16">
+        <f>テーブル1[[#This Row],[終了日]]</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="G13" s="23">
-        <f>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844)</f>
-        <v>2906.2255999999907</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="F13">
+        <f>E13-D13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <f>A13*$M$1*F13/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16">
+        <f>テーブル1[[#This Row],[終了日]]</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14">
+        <f>E14-D14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <f>A14*$M$1*F14/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16">
+        <f>テーブル1[[#This Row],[終了日]]</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="23"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="G16" s="23">
+        <f>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</f>
+        <v>6621.091199999988</v>
+      </c>
+      <c r="H16" s="23">
         <f>SUBTOTAL(109,テーブル1[差引])</f>
-        <v>2906.2256000000002</v>
-      </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="18"/>
+        <v>9227.0911999999989</v>
+      </c>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789BA04-047A-4325-86FE-3EC40A245B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E5A39-55A5-4380-8D22-65AA1E362797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,27 +474,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -514,6 +493,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -524,6 +509,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,20 +542,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowCount="1">
   <autoFilter ref="A1:I15" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="6" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="4" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="11" dataCellStyle="桁区切り"/>
+    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="8" dataCellStyle="桁区切り"/>
+    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="桁区切り">
+    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="桁区切り">
       <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
       <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="桁区切り"/>
-    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="7" dataCellStyle="桁区切り"/>
+    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="桁区切り"/>
+    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,11 +824,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -857,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>13200</v>
+        <v>9900</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>12</v>
@@ -936,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="19">
-        <v>45013</v>
+        <v>45076</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -980,7 +978,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="19">
-        <v>45047</v>
+        <v>45107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1017,7 +1015,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="20">
         <v>44652</v>
@@ -1075,7 +1073,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>179.51999999999998</v>
+        <v>122.75999999999999</v>
       </c>
       <c r="G7" s="20">
         <v>44713</v>
@@ -1097,7 +1095,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>13379.52</v>
+        <v>10022.76</v>
       </c>
       <c r="G8" s="20">
         <v>44743</v>
@@ -1142,7 +1140,7 @@
         <v>44805</v>
       </c>
       <c r="H10" s="9">
-        <v>4608.2615999999998</v>
+        <v>4745.1576000000005</v>
       </c>
       <c r="I10" s="14"/>
       <c r="K10" s="14"/>
@@ -1153,13 +1151,13 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>13200×0.146 ×34÷ 365 =180</v>
+        <v>9900×0.146 ×31÷ 365 =123</v>
       </c>
       <c r="G11" s="6">
         <v>44835</v>
       </c>
       <c r="H11" s="9">
-        <v>10545.48</v>
+        <v>10862.28</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1167,7 +1165,7 @@
         <v>44866</v>
       </c>
       <c r="H12" s="9">
-        <v>10422.719999999999</v>
+        <v>10739.52</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1175,7 +1173,7 @@
         <v>44896</v>
       </c>
       <c r="H13" s="9">
-        <v>10303.92</v>
+        <v>10620.72</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1184,7 +1182,7 @@
         <v>44957</v>
       </c>
       <c r="H14" s="9">
-        <v>10181.16</v>
+        <v>10497.96</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1192,7 +1190,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10058.4</v>
+        <v>10383.120000000001</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1203,30 +1201,50 @@
         <v>44986</v>
       </c>
       <c r="H16" s="9">
-        <v>9947.52</v>
+        <v>10272.24</v>
       </c>
     </row>
     <row r="17" spans="7:32">
-      <c r="G17" s="6"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="6">
+        <v>45046</v>
+      </c>
+      <c r="H17" s="9">
+        <v>10141.56</v>
+      </c>
     </row>
     <row r="18" spans="7:32">
-      <c r="G18" s="6"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="6">
+        <v>45076</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10022.76</v>
+      </c>
     </row>
     <row r="19" spans="7:32">
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="7:32">
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="7:32">
+      <c r="G21" s="6"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="7:32">
+      <c r="G22" s="6"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="7:32">
+      <c r="G23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="10">
-        <f>SUM(H10:H16)</f>
-        <v>66067.461599999995</v>
-      </c>
-      <c r="AF20" s="21" t="s">
+      <c r="H23" s="10">
+        <f>SUM(H10:H22)</f>
+        <v>88285.317599999995</v>
+      </c>
+      <c r="AF23" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1240,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -1586,7 +1604,7 @@
         <v>45031</v>
       </c>
       <c r="F9">
-        <f>E9-D9</f>
+        <f t="shared" ref="F9:F14" si="3">E9-D9</f>
         <v>5</v>
       </c>
       <c r="G9" s="18">
@@ -1617,7 +1635,7 @@
         <v>45076</v>
       </c>
       <c r="F10">
-        <f>E10-D10</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="G10" s="18">
@@ -1641,7 +1659,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11">
-        <f>E11-D11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="18">
@@ -1665,7 +1683,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12">
-        <f>E12-D12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="18">
@@ -1673,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" ref="H12:H15" si="3">A12*$M$1*F12/$M$2</f>
+        <f t="shared" ref="H12:H15" si="4">A12*$M$1*F12/$M$2</f>
         <v>0</v>
       </c>
       <c r="I12" s="18"/>
@@ -1689,7 +1707,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13">
-        <f>E13-D13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="18">
@@ -1697,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="18"/>
@@ -1713,7 +1731,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14">
-        <f>E14-D14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="18">
@@ -1721,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="18"/>
@@ -1745,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15" s="18"/>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E5A39-55A5-4380-8D22-65AA1E362797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D253F6-39C3-4522-B0BF-271AFC603320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -325,6 +325,10 @@
   </si>
   <si>
     <t>2023/4/23～2023/5/30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023/5/31～2023/6/15</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -474,6 +478,27 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -493,12 +518,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -509,21 +528,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,20 +546,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowCount="1">
   <autoFilter ref="A1:I15" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="11" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="8" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="6" dataCellStyle="桁区切り"/>
+    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="4" dataCellStyle="桁区切り"/>
+    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="9" totalsRowDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="桁区切り">
+    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="桁区切り">
       <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
       <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="桁区切り"/>
-    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="桁区切り"/>
+    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="7" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -1258,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1317,7 +1321,7 @@
       </c>
       <c r="Q1" s="17">
         <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),SUM(O7:O16))+$N$5</f>
-        <v>391664</v>
+        <v>393921</v>
       </c>
       <c r="S1" t="s">
         <v>31</v>
@@ -1584,6 +1588,12 @@
         <v>36</v>
       </c>
       <c r="J8" s="18"/>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>2257</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="18">
@@ -1650,25 +1660,31 @@
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="18"/>
+      <c r="A11" s="18">
+        <f>376242</f>
+        <v>376242</v>
+      </c>
       <c r="B11" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
+        <v>45092</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="16">
+        <v>45077</v>
+      </c>
+      <c r="E11" s="16">
+        <v>45092</v>
+      </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11" s="18">
         <f>A11*$M$1*F11/$M$2</f>
-        <v>0</v>
+        <v>2257.4519999999998</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2257.4519999999998</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1777,15 +1793,21 @@
       <c r="E16" s="16"/>
       <c r="G16" s="23">
         <f>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</f>
-        <v>6621.091199999988</v>
+        <v>8878.5431999999855</v>
       </c>
       <c r="H16" s="23">
         <f>SUBTOTAL(109,テーブル1[差引])</f>
-        <v>9227.0911999999989</v>
+        <v>11484.543199999998</v>
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="17" spans="1:15">
+      <c r="O17">
+        <f>SUM(O7:O16)</f>
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="18"/>
     </row>
   </sheetData>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D253F6-39C3-4522-B0BF-271AFC603320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A8F20-0E1C-422E-86B1-4692AD2D54CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>澁谷貴嗣</t>
-  </si>
-  <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
@@ -329,6 +326,10 @@
   </si>
   <si>
     <t>2023/5/31～2023/6/15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>澁谷貴嗣</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -478,27 +479,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -518,6 +498,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -528,6 +514,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,20 +547,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowCount="1">
   <autoFilter ref="A1:I15" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="6" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="4" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="11" dataCellStyle="桁区切り"/>
+    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="8" dataCellStyle="桁区切り"/>
+    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
       <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="桁区切り">
+    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="桁区切り">
       <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
       <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="桁区切り"/>
-    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="7" dataCellStyle="桁区切り"/>
+    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="桁区切り"/>
+    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="0" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -830,23 +831,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.58203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.58203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
@@ -862,28 +865,28 @@
         <v>9900</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>4</v>
@@ -891,13 +894,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>0.14599999999999999</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G2" s="20">
         <v>44562</v>
@@ -906,7 +909,7 @@
         <v>7835.64</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="6">
         <v>44715</v>
@@ -915,7 +918,7 @@
         <v>14007.84</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="6">
         <v>44825</v>
@@ -924,7 +927,7 @@
         <v>10066</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U2" s="6">
         <v>44901</v>
@@ -935,13 +938,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19">
-        <v>45076</v>
+        <v>45107</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="20">
         <v>44593</v>
@@ -950,7 +953,7 @@
         <v>11131.56</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="6">
         <v>44745</v>
@@ -959,7 +962,7 @@
         <v>13849.44</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="6">
         <v>44855</v>
@@ -968,7 +971,7 @@
         <v>9948</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U3" s="6">
         <v>44932</v>
@@ -979,13 +982,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="19">
-        <v>45107</v>
+        <v>45137</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="20">
         <v>44621</v>
@@ -1000,7 +1003,7 @@
         <v>13691.04</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" s="8">
         <f>SUM(R2:R3)</f>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="20">
         <v>44652</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>365</v>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="R6" s="7"/>
       <c r="U6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" s="7">
         <f>SUM(V2:V5)</f>
@@ -1077,7 +1080,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>122.75999999999999</v>
+        <v>118.79999999999998</v>
       </c>
       <c r="G7" s="20">
         <v>44713</v>
@@ -1099,7 +1102,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10022.76</v>
+        <v>10018.799999999999</v>
       </c>
       <c r="G8" s="20">
         <v>44743</v>
@@ -1109,7 +1112,7 @@
       </c>
       <c r="K8" s="9"/>
       <c r="M8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="8">
         <f>SUM(N2:N7)</f>
@@ -1128,128 +1131,159 @@
         <v>5621.5999999999985</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:22">
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <f>9900-5622</f>
         <v>4278</v>
       </c>
       <c r="G10" s="6">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="H10" s="9">
-        <v>4745.1576000000005</v>
+        <v>4796.4935999999998</v>
       </c>
       <c r="I10" s="14"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×31÷ 365 =123</v>
+        <v>9900×0.146 ×30÷ 365 =119</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9900</v>
       </c>
       <c r="G11" s="6">
-        <v>44835</v>
+        <v>44864</v>
       </c>
       <c r="H11" s="9">
-        <v>10862.28</v>
+        <v>10981.08</v>
       </c>
     </row>
     <row r="12" spans="1:22">
+      <c r="F12" s="1">
+        <v>9900</v>
+      </c>
       <c r="G12" s="6">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="H12" s="9">
+        <v>10858.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="F13" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G13" s="6">
+        <v>44925</v>
+      </c>
+      <c r="H13" s="9">
         <v>10739.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="G13" s="6">
-        <v>44896</v>
-      </c>
-      <c r="H13" s="9">
-        <v>10620.72</v>
-      </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:22">
+      <c r="F14" s="1">
+        <v>9900</v>
+      </c>
       <c r="G14" s="6">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>10497.96</v>
+        <v>10616.76</v>
       </c>
     </row>
     <row r="15" spans="1:22">
+      <c r="F15" s="1">
+        <v>9900</v>
+      </c>
       <c r="G15" s="6">
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10383.120000000001</v>
+        <v>10501.92</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="14"/>
+      <c r="F16" s="1">
+        <v>9900</v>
+      </c>
       <c r="G16" s="6">
-        <v>44986</v>
+        <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10272.24</v>
-      </c>
-    </row>
-    <row r="17" spans="7:32">
+        <v>10383.120000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:32">
+      <c r="F17" s="1">
+        <v>9900</v>
+      </c>
       <c r="G17" s="6">
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10141.56</v>
-      </c>
-    </row>
-    <row r="18" spans="7:32">
+        <v>10260.36</v>
+      </c>
+    </row>
+    <row r="18" spans="6:32">
+      <c r="F18" s="1">
+        <v>9900</v>
+      </c>
       <c r="G18" s="6">
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10022.76</v>
-      </c>
-    </row>
-    <row r="19" spans="7:32">
-      <c r="G19" s="6"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="7:32">
+        <v>10141.56</v>
+      </c>
+    </row>
+    <row r="19" spans="6:32">
+      <c r="F19" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45107</v>
+      </c>
+      <c r="H19" s="9">
+        <v>10018.799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="6:32">
       <c r="G20" s="6"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="7:32">
+    <row r="21" spans="6:32">
       <c r="G21" s="6"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="7:32">
+    <row r="22" spans="6:32">
       <c r="G22" s="6"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="7:32">
+    <row r="23" spans="6:32">
       <c r="G23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="10">
         <f>SUM(H10:H22)</f>
-        <v>88285.317599999995</v>
+        <v>99297.933600000004</v>
       </c>
       <c r="AF23" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1262,69 +1296,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
     <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1">
         <v>0.14599999999999999</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="17">
         <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),SUM(O7:O16))+$N$5</f>
         <v>393921</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1359,13 +1393,13 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2">
         <v>365</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1400,7 +1434,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1469,7 +1503,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5">
         <v>9854</v>
@@ -1506,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -1541,14 +1575,14 @@
         <v>0.47200000000000841</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="18"/>
       <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
         <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
       </c>
       <c r="O7">
         <v>5568</v>
@@ -1585,11 +1619,11 @@
         <v>2905.7536</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="18"/>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8">
         <v>2257</v>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A8F20-0E1C-422E-86B1-4692AD2D54CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61CE1A2-DEDC-4499-9BFC-822027DCBD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -829,27 +829,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF23"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.58203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
@@ -941,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="19">
-        <v>45107</v>
+        <v>45137</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -985,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="19">
-        <v>45137</v>
+        <v>45168</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="20">
         <v>44652</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>118.79999999999998</v>
+        <v>122.75999999999999</v>
       </c>
       <c r="G7" s="20">
         <v>44713</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10018.799999999999</v>
+        <v>10022.76</v>
       </c>
       <c r="G8" s="20">
         <v>44743</v>
@@ -1139,17 +1139,19 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
-        <f>9900-5622</f>
-        <v>4278</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="G10" s="20">
         <v>44834</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>4796.4935999999998</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="22">
+        <f>10000-4796</f>
+        <v>5204</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:22">
@@ -1158,16 +1160,16 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×30÷ 365 =119</v>
+        <v>9900×0.146 ×31÷ 365 =123</v>
       </c>
       <c r="F11" s="1">
-        <v>9900</v>
+        <v>5777</v>
       </c>
       <c r="G11" s="6">
         <v>44864</v>
       </c>
       <c r="H11" s="9">
-        <v>10981.08</v>
+        <v>6479.4831999999997</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1178,7 +1180,7 @@
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>10858.32</v>
+        <v>10981.08</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1189,7 +1191,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>10739.52</v>
+        <v>10862.28</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1201,7 +1203,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>10616.76</v>
+        <v>10739.52</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1212,7 +1214,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10501.92</v>
+        <v>10624.68</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1226,7 +1228,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10383.120000000001</v>
+        <v>10505.88</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1237,7 +1239,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10260.36</v>
+        <v>10383.120000000001</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1248,7 +1250,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10141.56</v>
+        <v>10264.32</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1259,12 +1261,19 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10018.799999999999</v>
+        <v>10141.56</v>
       </c>
     </row>
     <row r="20" spans="6:32">
-      <c r="G20" s="6"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45108</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10022.76</v>
+      </c>
     </row>
     <row r="21" spans="6:32">
       <c r="G21" s="6"/>
@@ -1272,17 +1281,25 @@
     </row>
     <row r="22" spans="6:32">
       <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="6:32">
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="6:32">
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="6:32">
+      <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="10">
-        <f>SUM(H10:H22)</f>
-        <v>99297.933600000004</v>
-      </c>
-      <c r="AF23" s="21" t="s">
+      <c r="H25" s="10">
+        <f>SUM(H11:H20)</f>
+        <v>101004.68319999998</v>
+      </c>
+      <c r="AF25" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1300,20 +1317,20 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61CE1A2-DEDC-4499-9BFC-822027DCBD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED349D-F3F8-4FA2-B0D6-5C86937540B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -406,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -471,6 +471,9 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,24 +835,24 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.58203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.58203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
@@ -941,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="19">
-        <v>45137</v>
+        <v>45168</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -985,7 +988,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="19">
-        <v>45168</v>
+        <v>45199</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1162,25 +1165,29 @@
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
         <v>9900×0.146 ×31÷ 365 =123</v>
       </c>
-      <c r="F11" s="1">
-        <v>5777</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="G11" s="20">
         <v>44864</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="11">
         <v>6479.4831999999997</v>
       </c>
+      <c r="I11" s="22">
+        <f>10000-H11</f>
+        <v>3520.5168000000003</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="F12" s="1">
-        <v>9900</v>
+      <c r="F12" s="25">
+        <v>7460</v>
       </c>
       <c r="G12" s="6">
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>10981.08</v>
+        <v>8367.1360000000004</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1191,7 +1198,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>10862.28</v>
+        <v>10985.04</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1203,7 +1210,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>10739.52</v>
+        <v>10862.28</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1214,7 +1221,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10624.68</v>
+        <v>10747.44</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1228,7 +1235,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10505.88</v>
+        <v>10628.64</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1239,7 +1246,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10383.120000000001</v>
+        <v>10505.88</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1250,7 +1257,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10264.32</v>
+        <v>10387.08</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1261,7 +1268,7 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10141.56</v>
+        <v>10264.32</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -1272,12 +1279,19 @@
         <v>45108</v>
       </c>
       <c r="H20" s="9">
+        <v>10145.52</v>
+      </c>
+    </row>
+    <row r="21" spans="6:32">
+      <c r="F21" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45169</v>
+      </c>
+      <c r="H21" s="9">
         <v>10022.76</v>
       </c>
-    </row>
-    <row r="21" spans="6:32">
-      <c r="G21" s="6"/>
-      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="6:32">
       <c r="G22" s="6"/>
@@ -1296,8 +1310,8 @@
         <v>10</v>
       </c>
       <c r="H25" s="10">
-        <f>SUM(H11:H20)</f>
-        <v>101004.68319999998</v>
+        <f>SUM(H12:H21)</f>
+        <v>102916.09599999999</v>
       </c>
       <c r="AF25" s="21" t="s">
         <v>26</v>
@@ -1317,20 +1331,20 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
     <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.58203125" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED349D-F3F8-4FA2-B0D6-5C86937540B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A43C3F5-CA54-4EBB-B686-36616274614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,11 +469,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -944,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="19">
-        <v>45168</v>
+        <v>45199</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -988,7 +988,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="19">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G5" s="20">
         <v>44652</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>122.75999999999999</v>
+        <v>241.55999999999997</v>
       </c>
       <c r="G7" s="20">
         <v>44713</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10022.76</v>
+        <v>10141.56</v>
       </c>
       <c r="G8" s="20">
         <v>44743</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×31÷ 365 =123</v>
+        <v>9900×0.146 ×61÷ 365 =242</v>
       </c>
       <c r="G11" s="20">
         <v>44864</v>
@@ -1180,14 +1180,14 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>7460</v>
       </c>
       <c r="G12" s="6">
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>8367.1360000000004</v>
+        <v>8456.655999999999</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1198,7 +1198,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>10985.04</v>
+        <v>11103.84</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1210,7 +1210,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>10862.28</v>
+        <v>10981.08</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1221,7 +1221,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10747.44</v>
+        <v>10866.24</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1235,7 +1235,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10628.64</v>
+        <v>10747.44</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1246,7 +1246,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10505.88</v>
+        <v>10624.68</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1257,7 +1257,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10387.08</v>
+        <v>10505.88</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1268,7 +1268,7 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10264.32</v>
+        <v>10383.120000000001</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -1279,7 +1279,7 @@
         <v>45108</v>
       </c>
       <c r="H20" s="9">
-        <v>10145.52</v>
+        <v>10264.32</v>
       </c>
     </row>
     <row r="21" spans="6:32">
@@ -1290,30 +1290,48 @@
         <v>45169</v>
       </c>
       <c r="H21" s="9">
-        <v>10022.76</v>
+        <v>10141.56</v>
       </c>
     </row>
     <row r="22" spans="6:32">
-      <c r="G22" s="6"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45199</v>
+      </c>
+      <c r="H22" s="9">
+        <v>10018.799999999999</v>
+      </c>
     </row>
     <row r="23" spans="6:32">
-      <c r="G23" s="6"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45200</v>
+      </c>
+      <c r="H23" s="9">
+        <v>9900</v>
+      </c>
     </row>
     <row r="24" spans="6:32">
       <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="6:32">
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="6:32">
+      <c r="G26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="10">
-        <f>SUM(H12:H21)</f>
-        <v>102916.09599999999</v>
-      </c>
-      <c r="AF25" s="21" t="s">
+      <c r="H26" s="10">
+        <f>SUM(H12:H24)</f>
+        <v>123993.61599999999</v>
+      </c>
+      <c r="AF26" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1499,8 +1517,8 @@
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="18">

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A43C3F5-CA54-4EBB-B686-36616274614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D18F26-52FC-4131-AC87-17BDA9968B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -944,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="19">
-        <v>45199</v>
+        <v>45229</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G5" s="20">
         <v>44652</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>241.55999999999997</v>
+        <v>122.75999999999999</v>
       </c>
       <c r="G7" s="20">
         <v>44713</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10141.56</v>
+        <v>10022.76</v>
       </c>
       <c r="G8" s="20">
         <v>44743</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×61÷ 365 =242</v>
+        <v>9900×0.146 ×31÷ 365 =123</v>
       </c>
       <c r="G11" s="20">
         <v>44864</v>
@@ -1187,7 +1187,7 @@
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>8456.655999999999</v>
+        <v>8549.16</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1198,7 +1198,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>11103.84</v>
+        <v>11226.6</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1210,7 +1210,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>10981.08</v>
+        <v>11103.84</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1221,7 +1221,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10866.24</v>
+        <v>10989</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1235,7 +1235,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10747.44</v>
+        <v>10870.2</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1246,7 +1246,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10624.68</v>
+        <v>10747.44</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1257,7 +1257,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10505.88</v>
+        <v>10628.64</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1268,7 +1268,7 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10383.120000000001</v>
+        <v>10505.88</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -1276,10 +1276,10 @@
         <v>9900</v>
       </c>
       <c r="G20" s="6">
-        <v>45108</v>
+        <v>45137</v>
       </c>
       <c r="H20" s="9">
-        <v>10264.32</v>
+        <v>10387.08</v>
       </c>
     </row>
     <row r="21" spans="6:32">
@@ -1290,7 +1290,7 @@
         <v>45169</v>
       </c>
       <c r="H21" s="9">
-        <v>10141.56</v>
+        <v>10264.32</v>
       </c>
     </row>
     <row r="22" spans="6:32">
@@ -1301,7 +1301,7 @@
         <v>45199</v>
       </c>
       <c r="H22" s="9">
-        <v>10018.799999999999</v>
+        <v>10141.56</v>
       </c>
     </row>
     <row r="23" spans="6:32">
@@ -1309,29 +1309,40 @@
         <v>9900</v>
       </c>
       <c r="G23" s="6">
-        <v>45200</v>
+        <v>45229</v>
       </c>
       <c r="H23" s="9">
+        <v>10022.76</v>
+      </c>
+    </row>
+    <row r="24" spans="6:32">
+      <c r="F24" s="1">
         <v>9900</v>
       </c>
-    </row>
-    <row r="24" spans="6:32">
-      <c r="G24" s="6"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="6">
+        <v>45260</v>
+      </c>
+      <c r="H24" s="9">
+        <v>9900</v>
+      </c>
     </row>
     <row r="25" spans="6:32">
       <c r="G25" s="6"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="6:32">
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="6:32">
+      <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="10">
-        <f>SUM(H12:H24)</f>
-        <v>123993.61599999999</v>
-      </c>
-      <c r="AF26" s="21" t="s">
+      <c r="H27" s="10">
+        <f>SUM(H12:H25)</f>
+        <v>135336.47999999998</v>
+      </c>
+      <c r="AF27" s="21" t="s">
         <v>26</v>
       </c>
     </row>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D18F26-52FC-4131-AC87-17BDA9968B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27ADB9-A0F0-49B9-A2BA-6B23650177B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="きたすな" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>元金</t>
     <rPh sb="0" eb="2">
@@ -141,13 +140,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>遅延日数</t>
-    <rPh sb="0" eb="4">
-      <t>チエンニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -162,40 +154,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>遅延損害金</t>
-    <rPh sb="0" eb="5">
-      <t>チエンソンガイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支払い合計</t>
-    <rPh sb="0" eb="2">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バック金額</t>
-    <rPh sb="3" eb="5">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バック発生日付</t>
-    <rPh sb="3" eb="6">
-      <t>ハッセイビ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>20日しめ</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -224,108 +182,6 @@
   </si>
   <si>
     <t>あまり</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TSUBAKI②</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SAFARI②</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>差引</t>
-    <rPh sb="0" eb="2">
-      <t>サシヒキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウサシヒキゴチエン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あまり8820円を元金から差引 結果は7行目</t>
-    <rPh sb="7" eb="8">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガンキン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サシヒキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ギョウメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あまり8844円を元金から差引 結果は8行目</t>
-    <rPh sb="7" eb="8">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガンキン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サシヒキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あまり6094円を元金から差引 結果は9行目</t>
-    <rPh sb="7" eb="8">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガンキン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サシヒキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャンセル代金残り</t>
-    <rPh sb="5" eb="7">
-      <t>ダイキン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>有効遅延損害金</t>
-    <rPh sb="0" eb="2">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ソンガイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023/4/23～2023/5/30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023/5/31～2023/6/15</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -406,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -453,9 +309,6 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -468,72 +321,15 @@
     <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -544,29 +340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}" name="テーブル1" displayName="テーブル1" ref="A1:I16" totalsRowCount="1">
-  <autoFilter ref="A1:I15" xr:uid="{0174D2C6-A372-4ADE-8814-E0809C8EEF8C}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24D0B452-0A01-40B9-AE5F-A19B0CB5AA6B}" name="元金" totalsRowDxfId="11" dataCellStyle="桁区切り"/>
-    <tableColumn id="2" xr3:uid="{A0713569-F3F2-40D6-B92A-3779BD571269}" name="バック発生日付" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{87647371-B749-40EF-B56C-16BC83B19DA2}" name="バック金額" totalsRowDxfId="8" dataCellStyle="桁区切り"/>
-    <tableColumn id="4" xr3:uid="{CC8257B6-0772-4146-AD35-FECE84A92386}" name="開始日" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2DCC1243-BA94-4FE4-A884-2B3DFFB31DE9}" name="終了日" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5976E2B3-DD66-48BA-A0EA-1D2F56FF471F}" name="遅延日数">
-      <calculatedColumnFormula>E2-D2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{BBDD6D6D-A310-4923-8A9D-6BAFCF27E5C3}" name="遅延損害金" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="桁区切り">
-      <calculatedColumnFormula>A2*$M$1*F2/$M$2</calculatedColumnFormula>
-      <totalsRowFormula>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{A28E5F15-27A4-4CEA-B731-3693778A5630}" name="差引" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="桁区切り"/>
-    <tableColumn id="10" xr3:uid="{EE300F96-88E8-4F19-8BAF-378E6527C3B1}" name="備考" dataDxfId="0" dataCellStyle="桁区切り"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -903,9 +676,9 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="20">
+        <v>23</v>
+      </c>
+      <c r="G2" s="17">
         <v>44562</v>
       </c>
       <c r="H2" s="11">
@@ -930,7 +703,7 @@
         <v>10066</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="U2" s="6">
         <v>44901</v>
@@ -941,15 +714,15 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="19">
-        <v>45229</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="16">
+        <v>45260</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="17">
         <v>44593</v>
       </c>
       <c r="H3" s="11">
@@ -974,7 +747,7 @@
         <v>9948</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U3" s="6">
         <v>44932</v>
@@ -985,15 +758,15 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16">
+        <v>45290</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19">
-        <v>45260</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>44621</v>
       </c>
       <c r="H4" s="11">
@@ -1025,9 +798,9 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>31</v>
-      </c>
-      <c r="G5" s="20">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17">
         <v>44652</v>
       </c>
       <c r="H5" s="11">
@@ -1056,7 +829,7 @@
         <v>365</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>44682</v>
       </c>
       <c r="H6" s="11">
@@ -1083,9 +856,9 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>122.75999999999999</v>
-      </c>
-      <c r="G7" s="20">
+        <v>118.79999999999998</v>
+      </c>
+      <c r="G7" s="17">
         <v>44713</v>
       </c>
       <c r="H7" s="11">
@@ -1105,9 +878,9 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10022.76</v>
-      </c>
-      <c r="G8" s="20">
+        <v>10018.799999999999</v>
+      </c>
+      <c r="G8" s="17">
         <v>44743</v>
       </c>
       <c r="H8" s="11">
@@ -1123,18 +896,18 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>44774</v>
       </c>
       <c r="H9" s="11">
         <v>10633</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <f>30000-SUM(H7:H9)-713</f>
         <v>5621.5999999999985</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9" s="9"/>
     </row>
@@ -1142,18 +915,18 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>44834</v>
       </c>
       <c r="H10" s="11">
         <v>4796.4935999999998</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="19">
         <f>10000-4796</f>
         <v>5204</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K10" s="14"/>
     </row>
@@ -1163,31 +936,31 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×31÷ 365 =123</v>
-      </c>
-      <c r="G11" s="20">
+        <v>9900×0.146 ×30÷ 365 =119</v>
+      </c>
+      <c r="G11" s="17">
         <v>44864</v>
       </c>
       <c r="H11" s="11">
         <v>6479.4831999999997</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <f>10000-H11</f>
         <v>3520.5168000000003</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>7460</v>
       </c>
       <c r="G12" s="6">
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>8549.16</v>
+        <v>8638.68</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1198,7 +971,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>11226.6</v>
+        <v>11345.4</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -1210,7 +983,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>11103.84</v>
+        <v>11222.64</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1221,7 +994,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>10989</v>
+        <v>11107.8</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1235,7 +1008,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10870.2</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1246,7 +1019,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10747.44</v>
+        <v>10866.24</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1257,7 +1030,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10628.64</v>
+        <v>10747.44</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1268,7 +1041,7 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10505.88</v>
+        <v>10624.68</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -1279,7 +1052,7 @@
         <v>45137</v>
       </c>
       <c r="H20" s="9">
-        <v>10387.08</v>
+        <v>10505.88</v>
       </c>
     </row>
     <row r="21" spans="6:32">
@@ -1290,7 +1063,7 @@
         <v>45169</v>
       </c>
       <c r="H21" s="9">
-        <v>10264.32</v>
+        <v>10379.16</v>
       </c>
     </row>
     <row r="22" spans="6:32">
@@ -1301,7 +1074,7 @@
         <v>45199</v>
       </c>
       <c r="H22" s="9">
-        <v>10141.56</v>
+        <v>10260.36</v>
       </c>
     </row>
     <row r="23" spans="6:32">
@@ -1312,7 +1085,7 @@
         <v>45229</v>
       </c>
       <c r="H23" s="9">
-        <v>10022.76</v>
+        <v>10141.56</v>
       </c>
     </row>
     <row r="24" spans="6:32">
@@ -1323,597 +1096,51 @@
         <v>45260</v>
       </c>
       <c r="H24" s="9">
-        <v>9900</v>
+        <v>10018.799999999999</v>
       </c>
     </row>
     <row r="25" spans="6:32">
-      <c r="G25" s="6"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45290</v>
+      </c>
+      <c r="H25" s="9">
+        <v>9900</v>
+      </c>
     </row>
     <row r="26" spans="6:32">
       <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="6:32">
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="6:32">
+      <c r="G28" s="6"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="6:32">
+      <c r="G29" s="6"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="6:32">
+      <c r="G30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="10">
-        <f>SUM(H12:H25)</f>
-        <v>135336.47999999998</v>
-      </c>
-      <c r="AF27" s="21" t="s">
-        <v>26</v>
+      <c r="H30" s="10">
+        <f>SUM(H12:H28)</f>
+        <v>146747.64000000001</v>
+      </c>
+      <c r="AF30" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B93EB-9EB4-44DE-96BF-EA1F45D9E10A}">
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="17">
-        <f ca="1">SUM(INDIRECT("A"&amp;COUNTA(A:A)),SUM(O7:O16))+$N$5</f>
-        <v>393921</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="18">
-        <v>400000</v>
-      </c>
-      <c r="B2" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>44975</v>
-      </c>
-      <c r="C2" s="18">
-        <v>6000</v>
-      </c>
-      <c r="D2" s="16">
-        <v>44781</v>
-      </c>
-      <c r="E2" s="16">
-        <v>44975</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F15" si="0">E2-D2</f>
-        <v>194</v>
-      </c>
-      <c r="G2" s="18">
-        <f>A2*$M$1*F2/$M$2</f>
-        <v>31039.999999999996</v>
-      </c>
-      <c r="H2" s="18">
-        <f>A2*$M$1*F2/$M$2-SUM(C2:C5)-6340</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2">
-        <v>365</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="18">
-        <v>400000</v>
-      </c>
-      <c r="B3" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>44982</v>
-      </c>
-      <c r="C3" s="18">
-        <v>3700</v>
-      </c>
-      <c r="D3" s="16">
-        <v>44976</v>
-      </c>
-      <c r="E3" s="16">
-        <v>44982</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G3" s="18">
-        <f t="shared" ref="G3:G15" si="1">A3*$M$1*F3/$M$2</f>
-        <v>959.99999999999989</v>
-      </c>
-      <c r="H3" s="18">
-        <f>A3*$M$1*F3/$M$2-960</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="18">
-        <v>400000</v>
-      </c>
-      <c r="B4" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>44990</v>
-      </c>
-      <c r="C4" s="18">
-        <v>9000</v>
-      </c>
-      <c r="D4" s="16">
-        <v>44983</v>
-      </c>
-      <c r="E4" s="16">
-        <v>44990</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="1"/>
-        <v>1119.9999999999998</v>
-      </c>
-      <c r="H4" s="18">
-        <f>A4*$M$1*F4/$M$2-1120</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="18">
-        <v>400000</v>
-      </c>
-      <c r="B5" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>44996</v>
-      </c>
-      <c r="C5" s="18">
-        <v>6000</v>
-      </c>
-      <c r="D5" s="16">
-        <v>44991</v>
-      </c>
-      <c r="E5" s="16">
-        <v>44996</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="1"/>
-        <v>799.99999999999989</v>
-      </c>
-      <c r="H5" s="18">
-        <f>A5*$M$1*F5/$M$2-800</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5">
-        <v>9854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="18">
-        <v>400000</v>
-      </c>
-      <c r="B6" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>45003</v>
-      </c>
-      <c r="C6" s="18">
-        <f>6000+9000+4000</f>
-        <v>19000</v>
-      </c>
-      <c r="D6" s="16">
-        <v>44997</v>
-      </c>
-      <c r="E6" s="16">
-        <v>45003</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="1"/>
-        <v>959.99999999999989</v>
-      </c>
-      <c r="H6" s="18">
-        <f>A6*$M$1*F6/$M$2-960</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="18">
-        <f>400000-8820</f>
-        <v>391180</v>
-      </c>
-      <c r="B7" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>45005</v>
-      </c>
-      <c r="C7" s="18">
-        <v>9000</v>
-      </c>
-      <c r="D7" s="16">
-        <v>45004</v>
-      </c>
-      <c r="E7" s="16">
-        <v>45005</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="1"/>
-        <v>156.47200000000001</v>
-      </c>
-      <c r="H7" s="18">
-        <f>A7*$M$1*F7/$M$2-156</f>
-        <v>0.47200000000000841</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7">
-        <v>5568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="18">
-        <f>391180-8844</f>
-        <v>382336</v>
-      </c>
-      <c r="B8" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>45025</v>
-      </c>
-      <c r="C8" s="18">
-        <v>9000</v>
-      </c>
-      <c r="D8" s="16">
-        <v>45006</v>
-      </c>
-      <c r="E8" s="16">
-        <v>45025</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="1"/>
-        <v>2905.7536</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" ref="H8:H11" si="2">A8*$M$1*F8/$M$2</f>
-        <v>2905.7536</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="18">
-        <f>382336-6094</f>
-        <v>376242</v>
-      </c>
-      <c r="B9" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>45031</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>45026</v>
-      </c>
-      <c r="E9" s="16">
-        <v>45031</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F14" si="3">E9-D9</f>
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <f>A9*$M$1*F9/$M$2+150+150</f>
-        <v>1052.4839999999999</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="2"/>
-        <v>752.48399999999992</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="18">
-        <f>376242</f>
-        <v>376242</v>
-      </c>
-      <c r="B10" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>45076</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16">
-        <v>45039</v>
-      </c>
-      <c r="E10" s="16">
-        <v>45076</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="G10" s="18">
-        <f>A10*$M$1*F10/$M$2</f>
-        <v>5568.3815999999997</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="2"/>
-        <v>5568.3815999999997</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="18">
-        <f>376242</f>
-        <v>376242</v>
-      </c>
-      <c r="B11" s="16">
-        <v>45092</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16">
-        <v>45077</v>
-      </c>
-      <c r="E11" s="16">
-        <v>45092</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="G11" s="18">
-        <f>A11*$M$1*F11/$M$2</f>
-        <v>2257.4519999999998</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="2"/>
-        <v>2257.4519999999998</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="18"/>
-      <c r="B12" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <f>A12*$M$1*F12/$M$2</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" ref="H12:H15" si="4">A12*$M$1*F12/$M$2</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <f>A13*$M$1*F13/$M$2</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <f>A14*$M$1*F14/$M$2</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16">
-        <f>テーブル1[[#This Row],[終了日]]</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="23"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="G16" s="23">
-        <f>SUM(テーブル1[遅延損害金])-SUM(テーブル1[バック金額])+SUM(8820,8844,6094)</f>
-        <v>8878.5431999999855</v>
-      </c>
-      <c r="H16" s="23">
-        <f>SUBTOTAL(109,テーブル1[差引])</f>
-        <v>11484.543199999998</v>
-      </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="O17">
-        <f>SUM(O7:O16)</f>
-        <v>7825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27ADB9-A0F0-49B9-A2BA-6B23650177B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27371CB-623A-4C4A-9607-96C5FEC1775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -717,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="16">
-        <v>45260</v>
+        <v>45290</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="16">
-        <v>45290</v>
+        <v>45321</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="17">
         <v>44652</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>118.79999999999998</v>
+        <v>122.75999999999999</v>
       </c>
       <c r="G7" s="17">
         <v>44713</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10018.799999999999</v>
+        <v>10022.76</v>
       </c>
       <c r="G8" s="17">
         <v>44743</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×30÷ 365 =119</v>
+        <v>9900×0.146 ×31÷ 365 =123</v>
       </c>
       <c r="G11" s="17">
         <v>44864</v>
@@ -960,7 +960,7 @@
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>8638.68</v>
+        <v>8731.1839999999993</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -971,7 +971,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>11345.4</v>
+        <v>11468.16</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -983,7 +983,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>11222.64</v>
+        <v>11345.4</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -994,7 +994,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>11107.8</v>
+        <v>11230.56</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1008,7 +1008,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>10989</v>
+        <v>11111.76</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1019,7 +1019,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10866.24</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1030,7 +1030,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10747.44</v>
+        <v>10870.2</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1041,7 +1041,7 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10624.68</v>
+        <v>10747.44</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -1052,7 +1052,7 @@
         <v>45137</v>
       </c>
       <c r="H20" s="9">
-        <v>10505.88</v>
+        <v>10628.64</v>
       </c>
     </row>
     <row r="21" spans="6:32">
@@ -1063,7 +1063,7 @@
         <v>45169</v>
       </c>
       <c r="H21" s="9">
-        <v>10379.16</v>
+        <v>10505.88</v>
       </c>
     </row>
     <row r="22" spans="6:32">
@@ -1074,7 +1074,7 @@
         <v>45199</v>
       </c>
       <c r="H22" s="9">
-        <v>10260.36</v>
+        <v>10383.120000000001</v>
       </c>
     </row>
     <row r="23" spans="6:32">
@@ -1085,7 +1085,7 @@
         <v>45229</v>
       </c>
       <c r="H23" s="9">
-        <v>10141.56</v>
+        <v>10264.32</v>
       </c>
     </row>
     <row r="24" spans="6:32">
@@ -1096,7 +1096,7 @@
         <v>45260</v>
       </c>
       <c r="H24" s="9">
-        <v>10018.799999999999</v>
+        <v>10141.56</v>
       </c>
     </row>
     <row r="25" spans="6:32">
@@ -1107,12 +1107,19 @@
         <v>45290</v>
       </c>
       <c r="H25" s="9">
-        <v>9900</v>
+        <v>10022.76</v>
       </c>
     </row>
     <row r="26" spans="6:32">
-      <c r="G26" s="6"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G26" s="6">
+        <v>45321</v>
+      </c>
+      <c r="H26" s="9">
+        <v>9900</v>
+      </c>
     </row>
     <row r="27" spans="6:32">
       <c r="G27" s="6"/>
@@ -1124,17 +1131,21 @@
     </row>
     <row r="29" spans="6:32">
       <c r="G29" s="6"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="6:32">
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="6:32">
+      <c r="G31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="10">
-        <f>SUM(H12:H28)</f>
-        <v>146747.64000000001</v>
-      </c>
-      <c r="AF30" s="18" t="s">
+      <c r="H31" s="10">
+        <f>SUM(H12:H30)</f>
+        <v>158339.984</v>
+      </c>
+      <c r="AF31" s="18" t="s">
         <v>21</v>
       </c>
     </row>

--- a/作業フォルダー/遅延損害金のやろうたち.xlsx
+++ b/作業フォルダー/遅延損害金のやろうたち.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27371CB-623A-4C4A-9607-96C5FEC1775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A5F950-CF2D-4632-A5CB-E172AB0C2D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,25 +607,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.58203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
@@ -717,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="16">
-        <v>45290</v>
+        <v>45321</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="16">
-        <v>45321</v>
+        <v>45350</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
@@ -798,7 +798,7 @@
       </c>
       <c r="B5" s="1">
         <f>B4-B3</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="17">
         <v>44652</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="B7" s="3">
         <f>B1*B2*B5/B6</f>
-        <v>122.75999999999999</v>
+        <v>114.83999999999999</v>
       </c>
       <c r="G7" s="17">
         <v>44713</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="B8" s="15">
         <f>B1+B7</f>
-        <v>10022.76</v>
+        <v>10014.84</v>
       </c>
       <c r="G8" s="17">
         <v>44743</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B5&amp;"÷ 365 ="&amp;ROUNDUP(B7,0)</f>
-        <v>9900×0.146 ×31÷ 365 =123</v>
+        <v>9900×0.146 ×29÷ 365 =115</v>
       </c>
       <c r="G11" s="17">
         <v>44864</v>
@@ -960,7 +960,7 @@
         <v>44895</v>
       </c>
       <c r="H12" s="9">
-        <v>8731.1839999999993</v>
+        <v>8817.7199999999993</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -971,7 +971,7 @@
         <v>44925</v>
       </c>
       <c r="H13" s="9">
-        <v>11468.16</v>
+        <v>11583</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -983,7 +983,7 @@
         <v>44956</v>
       </c>
       <c r="H14" s="9">
-        <v>11345.4</v>
+        <v>11460.24</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -994,7 +994,7 @@
         <v>44985</v>
       </c>
       <c r="H15" s="9">
-        <v>11230.56</v>
+        <v>11345.4</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="12"/>
@@ -1008,7 +1008,7 @@
         <v>45015</v>
       </c>
       <c r="H16" s="9">
-        <v>11111.76</v>
+        <v>11226.6</v>
       </c>
     </row>
     <row r="17" spans="6:32">
@@ -1019,7 +1019,7 @@
         <v>45046</v>
       </c>
       <c r="H17" s="9">
-        <v>10989</v>
+        <v>11103.84</v>
       </c>
     </row>
     <row r="18" spans="6:32">
@@ -1030,7 +1030,7 @@
         <v>45076</v>
       </c>
       <c r="H18" s="9">
-        <v>10870.2</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="19" spans="6:32">
@@ -1041,7 +1041,7 @@
         <v>45107</v>
       </c>
       <c r="H19" s="9">
-        <v>10747.44</v>
+        <v>10862</v>
       </c>
     </row>
     <row r="20" spans="6:32">
@@ -1052,7 +1052,7 @@
         <v>45137</v>
       </c>
       <c r="H20" s="9">
-        <v>10628.64</v>
+        <v>10743.48</v>
       </c>
     </row>
     <row r="21" spans="6:32">
@@ -1063,7 +1063,7 @@
         <v>45169</v>
       </c>
       <c r="H21" s="9">
-        <v>10505.88</v>
+        <v>10620.72</v>
       </c>
     </row>
     <row r="22" spans="6:32">
@@ -1074,7 +1074,7 @@
         <v>45199</v>
       </c>
       <c r="H22" s="9">
-        <v>10383.120000000001</v>
+        <v>10497.96</v>
       </c>
     </row>
     <row r="23" spans="6:32">
@@ -1085,7 +1085,7 @@
         <v>45229</v>
       </c>
       <c r="H23" s="9">
-        <v>10264.32</v>
+        <v>10379.16</v>
       </c>
     </row>
     <row r="24" spans="6:32">
@@ -1096,7 +1096,7 @@
         <v>45260</v>
       </c>
       <c r="H24" s="9">
-        <v>10141.56</v>
+        <v>10256.4</v>
       </c>
     </row>
     <row r="25" spans="6:32">
@@ -1107,7 +1107,7 @@
         <v>45290</v>
       </c>
       <c r="H25" s="9">
-        <v>10022.76</v>
+        <v>10137.6</v>
       </c>
     </row>
     <row r="26" spans="6:32">
@@ -1118,12 +1118,19 @@
         <v>45321</v>
       </c>
       <c r="H26" s="9">
-        <v>9900</v>
+        <v>10014.84</v>
       </c>
     </row>
     <row r="27" spans="6:32">
-      <c r="G27" s="6"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="1">
+        <v>9900</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45350</v>
+      </c>
+      <c r="H27" s="9">
+        <v>9900</v>
+      </c>
     </row>
     <row r="28" spans="6:32">
       <c r="G28" s="6"/>
@@ -1143,7 +1150,7 @@
       </c>
       <c r="H31" s="10">
         <f>SUM(H12:H30)</f>
-        <v>158339.984</v>
+        <v>169933.96</v>
       </c>
       <c r="AF31" s="18" t="s">
         <v>21</v>
